--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc106_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc106_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3736" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -419,10 +431,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -466,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="2">
+      <c r="C12" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -512,28 +524,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="2">
+      <c r="I14" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -708,10 +720,10 @@
       <c r="I20">
         <f>((C20-C19)^2+(D20- D19)^2)^.5</f>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="2" t="s">
+      <c r="J20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L20" t="n">
@@ -755,28 +767,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="2">
+      <c r="A22" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C22" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s" s="2">
+      <c r="C22" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -801,28 +813,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C24" t="s" s="2">
+      <c r="C24" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D24" t="s" s="2">
+      <c r="D24" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I24" t="s" s="2">
+      <c r="I24" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -939,10 +951,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="2" t="s">
+      <c r="J28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -986,28 +998,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="2">
+      <c r="A30" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s" s="2">
+      <c r="C30" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1032,28 +1044,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="2">
+      <c r="C32" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="2">
+      <c r="D32" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="2">
+      <c r="I32" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1112,10 +1124,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="2" t="s">
+      <c r="J34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1159,28 +1171,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="2">
+      <c r="A36" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s" s="2">
+      <c r="C36" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1205,28 +1217,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="2">
+      <c r="I38" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1343,10 +1355,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="2" t="s">
+      <c r="J42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1390,28 +1402,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="2">
+      <c r="A44" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s" s="2">
+      <c r="C44" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1436,28 +1448,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="2">
+      <c r="C46" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="2">
+      <c r="D46" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="2">
+      <c r="I46" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1603,10 +1615,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="2" t="s">
+      <c r="J51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1650,28 +1662,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="2">
+      <c r="A53" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="2">
+      <c r="C53" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1696,28 +1708,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="2">
+      <c r="C55" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="2">
+      <c r="D55" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="2">
+      <c r="I55" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1776,10 +1788,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="2" t="s">
+      <c r="J57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1823,28 +1835,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="2">
+      <c r="C59" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1869,28 +1881,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="2">
+      <c r="I61" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2036,10 +2048,10 @@
       <c r="I66">
         <f>((C66-C65)^2+(D66- D65)^2)^.5</f>
       </c>
-      <c r="J66" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K66" s="2" t="s">
+      <c r="J66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K66" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L66" t="n">
@@ -2083,28 +2095,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="2">
+      <c r="A68" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C68" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s" s="2">
+      <c r="C68" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2129,28 +2141,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C70" t="s" s="2">
+      <c r="C70" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D70" t="s" s="2">
+      <c r="D70" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I70" t="s" s="2">
+      <c r="I70" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2209,10 +2221,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="2" t="s">
+      <c r="J72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2256,28 +2268,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="2">
+      <c r="A74" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s" s="2">
+      <c r="C74" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2302,28 +2314,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="2">
+      <c r="I76" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2382,10 +2394,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="2" t="s">
+      <c r="J78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2429,28 +2441,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="2">
+      <c r="A80" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="2">
+      <c r="C80" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2475,28 +2487,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="2">
+      <c r="C82" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="2">
+      <c r="D82" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="2">
+      <c r="I82" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2555,10 +2567,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="2" t="s">
+      <c r="J84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2602,28 +2614,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2">
+      <c r="A86" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="2">
+      <c r="C86" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2648,28 +2660,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="2">
+      <c r="I88" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2728,10 +2740,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K90" s="2" t="s">
+      <c r="J90" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K90" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2775,28 +2787,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="2">
+      <c r="A92" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D92" t="s" s="2">
+      <c r="C92" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2821,28 +2833,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="2">
+      <c r="C94" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="2">
+      <c r="D94" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="2">
+      <c r="I94" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2901,10 +2913,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K96" s="2" t="s">
+      <c r="J96" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K96" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2948,28 +2960,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="2">
+      <c r="A98" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D98" t="s" s="2">
+      <c r="C98" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2994,28 +3006,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="2">
+      <c r="I100" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3103,10 +3115,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K103" s="2" t="s">
+      <c r="J103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3150,28 +3162,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="2">
+      <c r="A105" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s" s="2">
+      <c r="C105" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3196,28 +3208,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="2">
+      <c r="C107" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="2">
+      <c r="D107" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="2">
+      <c r="I107" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3363,10 +3375,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="2" t="s">
+      <c r="J112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3410,28 +3422,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="2">
+      <c r="A114" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="2">
+      <c r="C114" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3456,28 +3468,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="2">
+      <c r="I116" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3536,10 +3548,10 @@
       <c r="I118">
         <f>((C118-C117)^2+(D118- D117)^2)^.5</f>
       </c>
-      <c r="J118" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K118" s="2" t="s">
+      <c r="J118" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K118" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L118" t="n">
@@ -3583,28 +3595,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="2">
+      <c r="A120" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C120" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D120" t="s" s="2">
+      <c r="C120" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3629,28 +3641,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C122" t="s" s="2">
+      <c r="C122" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D122" t="s" s="2">
+      <c r="D122" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I122" t="s" s="2">
+      <c r="I122" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3709,10 +3721,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="2" t="s">
+      <c r="J124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3756,28 +3768,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="2">
+      <c r="A126" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="2">
+      <c r="C126" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3802,28 +3814,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="2">
+      <c r="I128" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3969,10 +3981,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="2" t="s">
+      <c r="J133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4016,28 +4028,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s" s="2">
+      <c r="C135" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4062,28 +4074,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4229,10 +4241,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K142" s="2" t="s">
+      <c r="J142" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K142" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4276,28 +4288,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="2">
+      <c r="A144" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s" s="2">
+      <c r="C144" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4322,28 +4334,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="2">
+      <c r="I146" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4460,10 +4472,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="2" t="s">
+      <c r="J150" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4507,28 +4519,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="2">
+      <c r="A152" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="2">
+      <c r="C152" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4553,28 +4565,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="2">
+      <c r="I154" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4662,10 +4674,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="2" t="s">
+      <c r="J157" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4709,28 +4721,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="2">
+      <c r="C159" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4755,28 +4767,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4951,10 +4963,10 @@
       <c r="I167">
         <f>((C167-C166)^2+(D167- D166)^2)^.5</f>
       </c>
-      <c r="J167" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K167" s="2" t="s">
+      <c r="J167" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K167" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L167" t="n">
@@ -4998,28 +5010,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="s" s="2">
+      <c r="A169" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C169" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D169" t="s" s="2">
+      <c r="C169" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D169" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5044,28 +5056,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C171" t="s" s="2">
+      <c r="C171" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D171" t="s" s="2">
+      <c r="D171" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I171" t="s" s="2">
+      <c r="I171" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5124,10 +5136,10 @@
       <c r="I173">
         <f>((C173-C172)^2+(D173- D172)^2)^.5</f>
       </c>
-      <c r="J173" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K173" s="2" t="s">
+      <c r="J173" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K173" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L173" t="n">
@@ -5171,28 +5183,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="2">
+      <c r="A175" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C175" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D175" t="s" s="2">
+      <c r="C175" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5217,28 +5229,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C177" t="s" s="2">
+      <c r="C177" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D177" t="s" s="2">
+      <c r="D177" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I177" t="s" s="2">
+      <c r="I177" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5297,10 +5309,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="2" t="s">
+      <c r="J179" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K179" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5344,28 +5356,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="2">
+      <c r="A181" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D181" t="s" s="2">
+      <c r="C181" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5390,28 +5402,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="2">
+      <c r="C183" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="2">
+      <c r="D183" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="2">
+      <c r="I183" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5470,10 +5482,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="2" t="s">
+      <c r="J185" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5517,28 +5529,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="2">
+      <c r="A187" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="2">
+      <c r="C187" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5563,28 +5575,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="2">
+      <c r="C189" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="2">
+      <c r="D189" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="2">
+      <c r="I189" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5643,10 +5655,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="2" t="s">
+      <c r="J191" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5690,28 +5702,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="2">
+      <c r="A193" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="2">
+      <c r="C193" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5736,28 +5748,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="2">
+      <c r="C195" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="2">
+      <c r="D195" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="2">
+      <c r="I195" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5816,10 +5828,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="2" t="s">
+      <c r="J197" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5863,28 +5875,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="2">
+      <c r="A199" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="2">
+      <c r="C199" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5909,28 +5921,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="2">
+      <c r="C201" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="2">
+      <c r="D201" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="2">
+      <c r="I201" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5989,10 +6001,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="2" t="s">
+      <c r="J203" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6036,28 +6048,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="2">
+      <c r="A205" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="2">
+      <c r="C205" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6082,28 +6094,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="2">
+      <c r="C207" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="2">
+      <c r="D207" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="2">
+      <c r="I207" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6162,10 +6174,10 @@
       <c r="I209">
         <f>((C209-C208)^2+(D209- D208)^2)^.5</f>
       </c>
-      <c r="J209" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K209" s="2" t="s">
+      <c r="J209" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K209" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L209" t="n">
@@ -6209,28 +6221,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="s" s="2">
+      <c r="A211" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C211" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D211" t="s" s="2">
+      <c r="C211" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D211" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6255,28 +6267,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C213" t="s" s="2">
+      <c r="C213" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D213" t="s" s="2">
+      <c r="D213" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I213" t="s" s="2">
+      <c r="I213" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6393,10 +6405,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="2" t="s">
+      <c r="J217" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6440,28 +6452,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="2">
+      <c r="A219" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="2">
+      <c r="C219" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6486,28 +6498,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="2">
+      <c r="C221" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="2">
+      <c r="D221" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="2">
+      <c r="I221" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6595,10 +6607,10 @@
       <c r="I224">
         <f>((C224-C223)^2+(D224- D223)^2)^.5</f>
       </c>
-      <c r="J224" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K224" s="2" t="s">
+      <c r="J224" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K224" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L224" t="n">
@@ -6642,28 +6654,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s" s="2">
+      <c r="A226" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C226" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D226" t="s" s="2">
+      <c r="C226" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6688,28 +6700,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C228" t="s" s="2">
+      <c r="C228" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D228" t="s" s="2">
+      <c r="D228" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I228" t="s" s="2">
+      <c r="I228" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6855,10 +6867,10 @@
       <c r="I233">
         <f>((C233-C232)^2+(D233- D232)^2)^.5</f>
       </c>
-      <c r="J233" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K233" s="2" t="s">
+      <c r="J233" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K233" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L233" t="n">
@@ -6902,28 +6914,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="2">
+      <c r="A235" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C235" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D235" t="s" s="2">
+      <c r="C235" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6948,28 +6960,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="B237" t="s" s="2">
+      <c r="B237" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C237" t="s" s="2">
+      <c r="C237" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D237" t="s" s="2">
+      <c r="D237" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E237" t="s" s="2">
+      <c r="E237" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F237" t="s" s="2">
+      <c r="F237" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G237" t="s" s="2">
+      <c r="G237" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H237" t="s" s="2">
+      <c r="H237" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I237" t="s" s="2">
+      <c r="I237" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7028,10 +7040,10 @@
       <c r="I239">
         <f>((C239-C238)^2+(D239- D238)^2)^.5</f>
       </c>
-      <c r="J239" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K239" s="2" t="s">
+      <c r="J239" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K239" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L239" t="n">
@@ -7075,28 +7087,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="s" s="2">
+      <c r="A241" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C241" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D241" t="s" s="2">
+      <c r="C241" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D241" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7121,28 +7133,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="B243" t="s" s="2">
+      <c r="B243" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C243" t="s" s="2">
+      <c r="C243" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D243" t="s" s="2">
+      <c r="D243" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E243" t="s" s="2">
+      <c r="E243" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F243" t="s" s="2">
+      <c r="F243" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G243" t="s" s="2">
+      <c r="G243" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H243" t="s" s="2">
+      <c r="H243" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I243" t="s" s="2">
+      <c r="I243" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7230,10 +7242,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="2" t="s">
+      <c r="J246" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
@@ -7277,28 +7289,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="s" s="2">
+      <c r="A248" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C248" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D248" t="s" s="2">
+      <c r="C248" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D248" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7323,28 +7335,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="B250" t="s" s="2">
+      <c r="B250" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C250" t="s" s="2">
+      <c r="C250" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D250" t="s" s="2">
+      <c r="D250" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E250" t="s" s="2">
+      <c r="E250" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F250" t="s" s="2">
+      <c r="F250" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G250" t="s" s="2">
+      <c r="G250" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H250" t="s" s="2">
+      <c r="H250" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I250" t="s" s="2">
+      <c r="I250" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7490,10 +7502,10 @@
       <c r="I255">
         <f>((C255-C254)^2+(D255- D254)^2)^.5</f>
       </c>
-      <c r="J255" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K255" s="2" t="s">
+      <c r="J255" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K255" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L255" t="n">
@@ -7537,28 +7549,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="s" s="2">
+      <c r="A257" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B257" t="s" s="2">
+      <c r="B257" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C257" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D257" t="s" s="2">
+      <c r="C257" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D257" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E257" t="s" s="2">
+      <c r="E257" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F257" t="s" s="2">
+      <c r="F257" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G257" t="s" s="2">
+      <c r="G257" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H257" t="s" s="2">
+      <c r="H257" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7583,28 +7595,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="B259" t="s" s="2">
+      <c r="B259" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C259" t="s" s="2">
+      <c r="C259" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D259" t="s" s="2">
+      <c r="D259" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E259" t="s" s="2">
+      <c r="E259" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F259" t="s" s="2">
+      <c r="F259" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G259" t="s" s="2">
+      <c r="G259" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H259" t="s" s="2">
+      <c r="H259" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I259" t="s" s="2">
+      <c r="I259" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7663,10 +7675,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="2" t="s">
+      <c r="J261" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
@@ -7710,28 +7722,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="2">
+      <c r="A263" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B263" t="s" s="2">
+      <c r="B263" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C263" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D263" t="s" s="2">
+      <c r="C263" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E263" t="s" s="2">
+      <c r="E263" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F263" t="s" s="2">
+      <c r="F263" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G263" t="s" s="2">
+      <c r="G263" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H263" t="s" s="2">
+      <c r="H263" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7756,28 +7768,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="B265" t="s" s="2">
+      <c r="B265" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C265" t="s" s="2">
+      <c r="C265" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D265" t="s" s="2">
+      <c r="D265" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E265" t="s" s="2">
+      <c r="E265" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F265" t="s" s="2">
+      <c r="F265" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G265" t="s" s="2">
+      <c r="G265" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H265" t="s" s="2">
+      <c r="H265" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I265" t="s" s="2">
+      <c r="I265" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7865,10 +7877,10 @@
       <c r="I268">
         <f>((C268-C267)^2+(D268- D267)^2)^.5</f>
       </c>
-      <c r="J268" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K268" s="2" t="s">
+      <c r="J268" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K268" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L268" t="n">
@@ -7912,28 +7924,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s" s="2">
+      <c r="A270" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B270" t="s" s="2">
+      <c r="B270" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C270" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D270" t="s" s="2">
+      <c r="C270" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D270" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E270" t="s" s="2">
+      <c r="E270" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F270" t="s" s="2">
+      <c r="F270" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G270" t="s" s="2">
+      <c r="G270" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H270" t="s" s="2">
+      <c r="H270" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7958,28 +7970,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="B272" t="s" s="2">
+      <c r="B272" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C272" t="s" s="2">
+      <c r="C272" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D272" t="s" s="2">
+      <c r="D272" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E272" t="s" s="2">
+      <c r="E272" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F272" t="s" s="2">
+      <c r="F272" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G272" t="s" s="2">
+      <c r="G272" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H272" t="s" s="2">
+      <c r="H272" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I272" t="s" s="2">
+      <c r="I272" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8096,10 +8108,10 @@
       <c r="I276">
         <f>((C276-C275)^2+(D276- D275)^2)^.5</f>
       </c>
-      <c r="J276" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K276" s="2" t="s">
+      <c r="J276" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K276" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L276" t="n">
@@ -8143,28 +8155,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="s" s="2">
+      <c r="A278" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B278" t="s" s="2">
+      <c r="B278" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C278" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D278" t="s" s="2">
+      <c r="C278" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D278" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E278" t="s" s="2">
+      <c r="E278" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F278" t="s" s="2">
+      <c r="F278" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G278" t="s" s="2">
+      <c r="G278" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H278" t="s" s="2">
+      <c r="H278" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8189,28 +8201,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="B280" t="s" s="2">
+      <c r="B280" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C280" t="s" s="2">
+      <c r="C280" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D280" t="s" s="2">
+      <c r="D280" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E280" t="s" s="2">
+      <c r="E280" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F280" t="s" s="2">
+      <c r="F280" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G280" t="s" s="2">
+      <c r="G280" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H280" t="s" s="2">
+      <c r="H280" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I280" t="s" s="2">
+      <c r="I280" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8269,10 +8281,10 @@
       <c r="I282">
         <f>((C282-C281)^2+(D282- D281)^2)^.5</f>
       </c>
-      <c r="J282" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K282" s="2" t="s">
+      <c r="J282" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K282" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L282" t="n">
@@ -8316,28 +8328,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="s" s="2">
+      <c r="A284" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B284" t="s" s="2">
+      <c r="B284" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C284" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D284" t="s" s="2">
+      <c r="C284" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D284" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E284" t="s" s="2">
+      <c r="E284" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F284" t="s" s="2">
+      <c r="F284" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G284" t="s" s="2">
+      <c r="G284" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H284" t="s" s="2">
+      <c r="H284" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8362,28 +8374,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="B286" t="s" s="2">
+      <c r="B286" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C286" t="s" s="2">
+      <c r="C286" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D286" t="s" s="2">
+      <c r="D286" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E286" t="s" s="2">
+      <c r="E286" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F286" t="s" s="2">
+      <c r="F286" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G286" t="s" s="2">
+      <c r="G286" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H286" t="s" s="2">
+      <c r="H286" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I286" t="s" s="2">
+      <c r="I286" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8442,10 +8454,10 @@
       <c r="I288">
         <f>((C288-C287)^2+(D288- D287)^2)^.5</f>
       </c>
-      <c r="J288" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K288" s="2" t="s">
+      <c r="J288" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K288" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L288" t="n">
@@ -8489,28 +8501,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="s" s="2">
+      <c r="A290" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B290" t="s" s="2">
+      <c r="B290" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C290" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D290" t="s" s="2">
+      <c r="C290" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D290" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E290" t="s" s="2">
+      <c r="E290" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F290" t="s" s="2">
+      <c r="F290" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G290" t="s" s="2">
+      <c r="G290" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H290" t="s" s="2">
+      <c r="H290" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8535,28 +8547,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="B292" t="s" s="2">
+      <c r="B292" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C292" t="s" s="2">
+      <c r="C292" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D292" t="s" s="2">
+      <c r="D292" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E292" t="s" s="2">
+      <c r="E292" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F292" t="s" s="2">
+      <c r="F292" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G292" t="s" s="2">
+      <c r="G292" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H292" t="s" s="2">
+      <c r="H292" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I292" t="s" s="2">
+      <c r="I292" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8615,10 +8627,10 @@
       <c r="I294">
         <f>((C294-C293)^2+(D294- D293)^2)^.5</f>
       </c>
-      <c r="J294" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K294" s="2" t="s">
+      <c r="J294" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K294" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L294" t="n">
@@ -8662,28 +8674,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="s" s="2">
+      <c r="A296" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B296" t="s" s="2">
+      <c r="B296" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C296" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D296" t="s" s="2">
+      <c r="C296" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D296" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E296" t="s" s="2">
+      <c r="E296" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F296" t="s" s="2">
+      <c r="F296" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G296" t="s" s="2">
+      <c r="G296" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H296" t="s" s="2">
+      <c r="H296" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8708,28 +8720,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="B298" t="s" s="2">
+      <c r="B298" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C298" t="s" s="2">
+      <c r="C298" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D298" t="s" s="2">
+      <c r="D298" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E298" t="s" s="2">
+      <c r="E298" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F298" t="s" s="2">
+      <c r="F298" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G298" t="s" s="2">
+      <c r="G298" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H298" t="s" s="2">
+      <c r="H298" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I298" t="s" s="2">
+      <c r="I298" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8788,10 +8800,10 @@
       <c r="I300">
         <f>((C300-C299)^2+(D300- D299)^2)^.5</f>
       </c>
-      <c r="J300" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K300" s="2" t="s">
+      <c r="J300" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K300" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L300" t="n">
@@ -8835,28 +8847,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="s" s="2">
+      <c r="A302" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B302" t="s" s="2">
+      <c r="B302" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C302" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D302" t="s" s="2">
+      <c r="C302" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D302" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E302" t="s" s="2">
+      <c r="E302" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F302" t="s" s="2">
+      <c r="F302" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G302" t="s" s="2">
+      <c r="G302" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H302" t="s" s="2">
+      <c r="H302" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8881,28 +8893,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="B304" t="s" s="2">
+      <c r="B304" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C304" t="s" s="2">
+      <c r="C304" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D304" t="s" s="2">
+      <c r="D304" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E304" t="s" s="2">
+      <c r="E304" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F304" t="s" s="2">
+      <c r="F304" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G304" t="s" s="2">
+      <c r="G304" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H304" t="s" s="2">
+      <c r="H304" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I304" t="s" s="2">
+      <c r="I304" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9019,10 +9031,10 @@
       <c r="I308">
         <f>((C308-C307)^2+(D308- D307)^2)^.5</f>
       </c>
-      <c r="J308" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K308" s="2" t="s">
+      <c r="J308" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K308" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L308" t="n">
@@ -9066,28 +9078,28 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="s" s="2">
+      <c r="A310" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B310" t="s" s="2">
+      <c r="B310" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C310" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D310" t="s" s="2">
+      <c r="C310" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D310" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E310" t="s" s="2">
+      <c r="E310" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F310" t="s" s="2">
+      <c r="F310" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G310" t="s" s="2">
+      <c r="G310" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H310" t="s" s="2">
+      <c r="H310" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9112,28 +9124,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="B312" t="s" s="2">
+      <c r="B312" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C312" t="s" s="2">
+      <c r="C312" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D312" t="s" s="2">
+      <c r="D312" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E312" t="s" s="2">
+      <c r="E312" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F312" t="s" s="2">
+      <c r="F312" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G312" t="s" s="2">
+      <c r="G312" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H312" t="s" s="2">
+      <c r="H312" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I312" t="s" s="2">
+      <c r="I312" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9192,10 +9204,10 @@
       <c r="I314">
         <f>((C314-C313)^2+(D314- D313)^2)^.5</f>
       </c>
-      <c r="J314" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K314" s="2" t="s">
+      <c r="J314" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K314" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L314" t="n">
@@ -9239,28 +9251,28 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="s" s="2">
+      <c r="A316" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B316" t="s" s="2">
+      <c r="B316" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C316" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D316" t="s" s="2">
+      <c r="C316" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D316" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E316" t="s" s="2">
+      <c r="E316" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F316" t="s" s="2">
+      <c r="F316" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G316" t="s" s="2">
+      <c r="G316" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H316" t="s" s="2">
+      <c r="H316" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9285,28 +9297,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="B318" t="s" s="2">
+      <c r="B318" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C318" t="s" s="2">
+      <c r="C318" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D318" t="s" s="2">
+      <c r="D318" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E318" t="s" s="2">
+      <c r="E318" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F318" t="s" s="2">
+      <c r="F318" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G318" t="s" s="2">
+      <c r="G318" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H318" t="s" s="2">
+      <c r="H318" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I318" t="s" s="2">
+      <c r="I318" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9365,10 +9377,10 @@
       <c r="I320">
         <f>((C320-C319)^2+(D320- D319)^2)^.5</f>
       </c>
-      <c r="J320" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K320" s="2" t="s">
+      <c r="J320" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K320" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L320" t="n">
@@ -9412,28 +9424,28 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="s" s="2">
+      <c r="A322" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B322" t="s" s="2">
+      <c r="B322" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C322" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D322" t="s" s="2">
+      <c r="C322" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D322" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E322" t="s" s="2">
+      <c r="E322" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F322" t="s" s="2">
+      <c r="F322" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G322" t="s" s="2">
+      <c r="G322" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H322" t="s" s="2">
+      <c r="H322" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9458,28 +9470,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="B324" t="s" s="2">
+      <c r="B324" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C324" t="s" s="2">
+      <c r="C324" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D324" t="s" s="2">
+      <c r="D324" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E324" t="s" s="2">
+      <c r="E324" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F324" t="s" s="2">
+      <c r="F324" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G324" t="s" s="2">
+      <c r="G324" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H324" t="s" s="2">
+      <c r="H324" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I324" t="s" s="2">
+      <c r="I324" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9538,10 +9550,10 @@
       <c r="I326">
         <f>((C326-C325)^2+(D326- D325)^2)^.5</f>
       </c>
-      <c r="J326" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K326" s="2" t="s">
+      <c r="J326" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K326" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L326" t="n">
@@ -9585,28 +9597,28 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="s" s="2">
+      <c r="A328" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B328" t="s" s="2">
+      <c r="B328" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C328" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D328" t="s" s="2">
+      <c r="C328" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D328" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E328" t="s" s="2">
+      <c r="E328" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F328" t="s" s="2">
+      <c r="F328" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G328" t="s" s="2">
+      <c r="G328" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H328" t="s" s="2">
+      <c r="H328" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9631,28 +9643,28 @@
       </c>
     </row>
     <row r="330">
-      <c r="B330" t="s" s="2">
+      <c r="B330" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C330" t="s" s="2">
+      <c r="C330" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D330" t="s" s="2">
+      <c r="D330" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E330" t="s" s="2">
+      <c r="E330" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F330" t="s" s="2">
+      <c r="F330" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G330" t="s" s="2">
+      <c r="G330" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H330" t="s" s="2">
+      <c r="H330" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I330" t="s" s="2">
+      <c r="I330" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9711,10 +9723,10 @@
       <c r="I332">
         <f>((C332-C331)^2+(D332- D331)^2)^.5</f>
       </c>
-      <c r="J332" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K332" s="2" t="s">
+      <c r="J332" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K332" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L332" t="n">
@@ -9758,28 +9770,28 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="s" s="2">
+      <c r="A334" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B334" t="s" s="2">
+      <c r="B334" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C334" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D334" t="s" s="2">
+      <c r="C334" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D334" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E334" t="s" s="2">
+      <c r="E334" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F334" t="s" s="2">
+      <c r="F334" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G334" t="s" s="2">
+      <c r="G334" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H334" t="s" s="2">
+      <c r="H334" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9804,28 +9816,28 @@
       </c>
     </row>
     <row r="336">
-      <c r="B336" t="s" s="2">
+      <c r="B336" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C336" t="s" s="2">
+      <c r="C336" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D336" t="s" s="2">
+      <c r="D336" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E336" t="s" s="2">
+      <c r="E336" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F336" t="s" s="2">
+      <c r="F336" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G336" t="s" s="2">
+      <c r="G336" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H336" t="s" s="2">
+      <c r="H336" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I336" t="s" s="2">
+      <c r="I336" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9884,10 +9896,10 @@
       <c r="I338">
         <f>((C338-C337)^2+(D338- D337)^2)^.5</f>
       </c>
-      <c r="J338" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K338" s="2" t="s">
+      <c r="J338" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K338" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L338" t="n">
@@ -9931,28 +9943,28 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="s" s="2">
+      <c r="A340" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B340" t="s" s="2">
+      <c r="B340" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C340" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D340" t="s" s="2">
+      <c r="C340" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D340" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E340" t="s" s="2">
+      <c r="E340" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F340" t="s" s="2">
+      <c r="F340" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G340" t="s" s="2">
+      <c r="G340" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H340" t="s" s="2">
+      <c r="H340" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9977,28 +9989,28 @@
       </c>
     </row>
     <row r="342">
-      <c r="B342" t="s" s="2">
+      <c r="B342" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C342" t="s" s="2">
+      <c r="C342" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D342" t="s" s="2">
+      <c r="D342" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E342" t="s" s="2">
+      <c r="E342" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F342" t="s" s="2">
+      <c r="F342" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G342" t="s" s="2">
+      <c r="G342" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H342" t="s" s="2">
+      <c r="H342" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I342" t="s" s="2">
+      <c r="I342" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10057,10 +10069,10 @@
       <c r="I344">
         <f>((C344-C343)^2+(D344- D343)^2)^.5</f>
       </c>
-      <c r="J344" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K344" s="2" t="s">
+      <c r="J344" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K344" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L344" t="n">
@@ -10104,28 +10116,28 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="s" s="2">
+      <c r="A346" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B346" t="s" s="2">
+      <c r="B346" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C346" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D346" t="s" s="2">
+      <c r="C346" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D346" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E346" t="s" s="2">
+      <c r="E346" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F346" t="s" s="2">
+      <c r="F346" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G346" t="s" s="2">
+      <c r="G346" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H346" t="s" s="2">
+      <c r="H346" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10150,28 +10162,28 @@
       </c>
     </row>
     <row r="348">
-      <c r="B348" t="s" s="2">
+      <c r="B348" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C348" t="s" s="2">
+      <c r="C348" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D348" t="s" s="2">
+      <c r="D348" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E348" t="s" s="2">
+      <c r="E348" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F348" t="s" s="2">
+      <c r="F348" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G348" t="s" s="2">
+      <c r="G348" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H348" t="s" s="2">
+      <c r="H348" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I348" t="s" s="2">
+      <c r="I348" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10230,10 +10242,10 @@
       <c r="I350">
         <f>((C350-C349)^2+(D350- D349)^2)^.5</f>
       </c>
-      <c r="J350" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K350" s="2" t="s">
+      <c r="J350" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K350" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L350" t="n">
@@ -10277,28 +10289,28 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" t="s" s="2">
+      <c r="A352" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B352" t="s" s="2">
+      <c r="B352" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C352" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D352" t="s" s="2">
+      <c r="C352" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D352" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E352" t="s" s="2">
+      <c r="E352" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F352" t="s" s="2">
+      <c r="F352" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G352" t="s" s="2">
+      <c r="G352" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H352" t="s" s="2">
+      <c r="H352" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10323,28 +10335,28 @@
       </c>
     </row>
     <row r="354">
-      <c r="B354" t="s" s="2">
+      <c r="B354" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C354" t="s" s="2">
+      <c r="C354" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D354" t="s" s="2">
+      <c r="D354" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E354" t="s" s="2">
+      <c r="E354" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F354" t="s" s="2">
+      <c r="F354" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G354" t="s" s="2">
+      <c r="G354" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H354" t="s" s="2">
+      <c r="H354" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I354" t="s" s="2">
+      <c r="I354" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10403,10 +10415,10 @@
       <c r="I356">
         <f>((C356-C355)^2+(D356- D355)^2)^.5</f>
       </c>
-      <c r="J356" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K356" s="2" t="s">
+      <c r="J356" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K356" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L356" t="n">
